--- a/medicine/Psychotrope/Thrips_du_tabac_et_de_l'oignon/Thrips_du_tabac_et_de_l'oignon.xlsx
+++ b/medicine/Psychotrope/Thrips_du_tabac_et_de_l'oignon/Thrips_du_tabac_et_de_l'oignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thrips_du_tabac_et_de_l%27oignon</t>
+          <t>Thrips_du_tabac_et_de_l'oignon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thrips tabaci
 Le thrips du tabac et de l'oignon (Thrips tabaci) est une espèce de minuscules insectes de l'ordre des thysanoptères et de la famille des Thripidae qui pique les feuilles de nombreuses espèces cultivées (notamment de Solanacées et de Liliacées, mais pas seulement) et dont la larve parasite ces mêmes plantes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thrips_du_tabac_et_de_l%27oignon</t>
+          <t>Thrips_du_tabac_et_de_l'oignon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte (on ne rencontre pratiquement que des femelles) est un insecte d'un millimètre de long environ, de couleur jaune pâle, à ailes longues de couleur gris perle. Cet insecte est considéré comme le plus petit insecte ailé. Ses ailes sont ornées de filaments qui leur donne un aspect plumeux.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thrips_du_tabac_et_de_l%27oignon</t>
+          <t>Thrips_du_tabac_et_de_l'oignon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est presque exclusivement parthénogénétique.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thrips_du_tabac_et_de_l%27oignon</t>
+          <t>Thrips_du_tabac_et_de_l'oignon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Symptômes et dégâts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Peut se nourrir de tous les organes végétaux attaqués.
 Les thrips piquent les tissus et injectent leur salive toxique qui lyse les contenus cellulaires, puis aspirent le tout pour l'ingurgiter.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thrips_du_tabac_et_de_l%27oignon</t>
+          <t>Thrips_du_tabac_et_de_l'oignon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Détection difficile car les thrips vivent cachés.
 Stratégie de lutte préventive :
